--- a/working/taylor/matfit.years.xlsx
+++ b/working/taylor/matfit.years.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/taylor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E5EBE3-D94E-924A-88C0-B8F56688FEEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDCDFB6-11C1-4844-A8C4-3B3B69376FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="15480" windowHeight="13680" xr2:uid="{102CDA90-FD84-CD45-8D6D-413EEA0DE5E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>cross</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,8 +467,17 @@
       <c r="C2">
         <v>6.2162162162162159E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2">
         <v>2006</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -478,8 +490,17 @@
       <c r="C3">
         <v>2.7027027027027029E-2</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3">
         <v>2006</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -492,8 +513,17 @@
       <c r="C4">
         <v>9.1891891891891897E-2</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
       <c r="E4">
         <v>2006</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -506,8 +536,17 @@
       <c r="C5">
         <v>3.5135135135135137E-2</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5">
         <v>2006</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -520,8 +559,17 @@
       <c r="C6">
         <v>0.1054054054054054</v>
       </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6">
         <v>2006</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -534,8 +582,17 @@
       <c r="C7">
         <v>1.3235294117647057E-2</v>
       </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
       <c r="E7">
         <v>2007</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,8 +605,17 @@
       <c r="C8">
         <v>4.9632352941176468E-3</v>
       </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8">
         <v>2007</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -562,8 +628,17 @@
       <c r="C9">
         <v>1.2132352941176471E-2</v>
       </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
       <c r="E9">
         <v>2007</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,8 +651,17 @@
       <c r="C10">
         <v>4.9632352941176468E-3</v>
       </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
       <c r="E10">
         <v>2007</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -590,8 +674,17 @@
       <c r="C11">
         <v>1.4338235294117646E-2</v>
       </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
       <c r="E11">
         <v>2007</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
